--- a/config/forms/contact/case-create.xlsx
+++ b/config/forms/contact/case-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EB5DBF-163F-431B-846A-CCC77F42D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F561D6D-FFF1-4777-A43C-82DE353ABAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8316" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8313" uniqueCount="2237">
   <si>
     <t>name</t>
   </si>
@@ -6632,15 +6632,6 @@
     <t>../../parent</t>
   </si>
   <si>
-    <t>ol_county</t>
-  </si>
-  <si>
-    <t>ol_subcounty</t>
-  </si>
-  <si>
-    <t>Sub-county</t>
-  </si>
-  <si>
     <t>outbreak</t>
   </si>
   <si>
@@ -6650,42 +6641,12 @@
     <t>code</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>hidden select-contact type-outbreak_location</t>
-  </si>
-  <si>
     <t>tel</t>
   </si>
   <si>
     <t>&lt;h3 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 5px 0;"&gt;Reporting Location&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>case_outbreak_name</t>
-  </si>
-  <si>
-    <t>../../case/outbreak_location/outbreak/name</t>
-  </si>
-  <si>
-    <t>case_outbreak_code</t>
-  </si>
-  <si>
-    <t>../../case/outbreak_location/outbreak/code</t>
-  </si>
-  <si>
-    <t>${case_outbreak_code} = 'evd'</t>
-  </si>
-  <si>
     <t>Epidemiology Number</t>
   </si>
   <si>
@@ -6765,17 +6726,51 @@
   </si>
   <si>
     <t>&lt;h3 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 5px 0;"&gt;Investigation&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>case_identifiers_title</t>
+  </si>
+  <si>
+    <t>cases_group</t>
+  </si>
+  <si>
+    <t>hidden select-contact type-cases_group</t>
+  </si>
+  <si>
+    <t>../../case/cases_group/outbreak_location/outbreak/name</t>
+  </si>
+  <si>
+    <t>outbreak_name</t>
+  </si>
+  <si>
+    <t>outbreak_code</t>
+  </si>
+  <si>
+    <t>outbreak_location_name</t>
+  </si>
+  <si>
+    <t>../../case/cases_group/outbreak_location/name</t>
+  </si>
+  <si>
+    <t>${outbreak_code} = 'evd'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6972,85 +6967,86 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -7291,11 +7287,11 @@
   <dimension ref="A1:N1078"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7442,236 +7438,230 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>2017</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>2018</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" t="s">
         <v>2009</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>2017</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" t="s">
         <v>1996</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>2020</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" t="s">
         <v>2009</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G14" t="s">
         <v>2231</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
         <v>2007</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B18" s="51" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>2195</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="50" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>2192</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C22" s="30" t="s">
         <v>2009</v>
       </c>
-      <c r="H15" s="30" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B16" s="13" t="s">
+    </row>
+    <row r="23" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="50" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>2193</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C23" s="31" t="s">
         <v>2194</v>
       </c>
-      <c r="E16" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>2195</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>2196</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>2197</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:7" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>2199</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>2201</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>2017</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>2045</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="B24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="31" t="s">
         <v>2017</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>2204</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+      <c r="B27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
         <v>2017</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="31" t="s">
+      <c r="B28" s="50" t="s">
         <v>2198</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C28" s="31" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
         <v>2014</v>
       </c>
       <c r="B29" s="30" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>2209</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>2009</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>2211</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>2009</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>2212</v>
-      </c>
-    </row>
+    <row r="31" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="30" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>2020</v>
@@ -7729,52 +7719,52 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:13" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
         <v>2007</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="17" t="s">
         <v>2021</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="17" t="s">
         <v>2009</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="17" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="49" t="s">
         <v>2022</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>2217</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>2218</v>
+      <c r="B39" s="49" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>2204</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>2205</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="36" t="s">
         <v>2017</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>2023</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>2214</v>
+      <c r="C40" s="34" t="s">
+        <v>2201</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="38"/>
+      <c r="H40" s="36"/>
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="36" t="s">
         <v>2017</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -7783,15 +7773,15 @@
       <c r="C41" s="19" t="s">
         <v>2025</v>
       </c>
-      <c r="H41" s="38"/>
+      <c r="H41" s="36"/>
       <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:13" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="38" t="s">
         <v>2042</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>2222</v>
+      <c r="B42" s="38" t="s">
+        <v>2209</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>2160</v>
@@ -7799,184 +7789,184 @@
       <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I42" s="40" t="s">
+      <c r="I42" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:13" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
         <v>2014</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="17" t="s">
         <v>2021</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:13" s="42" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="42" t="s">
+    <row r="45" spans="1:13" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="40" t="s">
         <v>2007</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>2226</v>
-      </c>
-      <c r="C45" s="42" t="s">
+      <c r="B45" s="40" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C45" s="40" t="s">
         <v>2009</v>
       </c>
-      <c r="F45" s="42" t="s">
-        <v>2229</v>
-      </c>
-      <c r="H45" s="42" t="s">
+      <c r="F45" s="40" t="s">
+        <v>2216</v>
+      </c>
+      <c r="H45" s="40" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="43" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="43" t="s">
+    <row r="46" spans="1:13" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="41" t="s">
         <v>2011</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="41" t="s">
         <v>2193</v>
       </c>
-      <c r="C46" s="44" t="s">
-        <v>2228</v>
-      </c>
-      <c r="D46" s="43" t="s">
+      <c r="C46" s="42" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D46" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="43" t="s">
-        <v>2227</v>
-      </c>
-      <c r="K46" s="45"/>
-    </row>
-    <row r="47" spans="1:13" s="43" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="43" t="s">
+      <c r="H46" s="41" t="s">
+        <v>2214</v>
+      </c>
+      <c r="K46" s="43"/>
+    </row>
+    <row r="47" spans="1:13" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="41" t="s">
         <v>2017</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="42" t="s">
         <v>2009</v>
       </c>
-      <c r="K47" s="45"/>
+      <c r="K47" s="43"/>
     </row>
     <row r="48" spans="1:13" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:8" s="42" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:8" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="40" t="s">
         <v>2007</v>
       </c>
-      <c r="B49" s="42" t="s">
-        <v>2230</v>
-      </c>
-      <c r="C49" s="42" t="s">
+      <c r="B49" s="40" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C49" s="40" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="43" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="43" t="s">
+    <row r="50" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="41" t="s">
         <v>2017</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="41" t="s">
         <v>2050</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="41" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="43" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="43" t="s">
+    <row r="51" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="41" t="s">
         <v>2017</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="41" t="s">
         <v>2052</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="41" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="43" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="43" t="s">
+    <row r="52" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="41" t="s">
         <v>2017</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="41" t="s">
         <v>2054</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="41" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="43" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="43" t="s">
+    <row r="53" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="41" t="s">
         <v>2017</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="41" t="s">
         <v>2057</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="41" t="s">
         <v>2055</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="42" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:8" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="40" t="s">
         <v>2014</v>
       </c>
-      <c r="B54" s="42" t="s">
-        <v>2230</v>
+      <c r="B54" s="40" t="s">
+        <v>2217</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:8" s="42" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="42" t="s">
+    <row r="56" spans="1:8" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="40" t="s">
         <v>2007</v>
       </c>
-      <c r="B56" s="42" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C56" s="42" t="s">
+      <c r="B56" s="40" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C56" s="40" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="43" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="46" t="s">
-        <v>2207</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>2234</v>
-      </c>
-      <c r="C57" s="43" t="s">
+    <row r="57" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="44" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C57" s="41" t="s">
         <v>2009</v>
       </c>
-      <c r="H57" s="46" t="s">
+      <c r="H57" s="44" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="43" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="46" t="s">
+    <row r="58" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="44" t="s">
         <v>2011</v>
       </c>
-      <c r="B58" s="43" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C58" s="43" t="s">
+      <c r="B58" s="41" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C58" s="41" t="s">
         <v>2009</v>
       </c>
-      <c r="H58" s="46" t="s">
+      <c r="H58" s="44" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="42" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="42" t="s">
+    <row r="59" spans="1:8" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="40" t="s">
         <v>2014</v>
       </c>
-      <c r="B59" s="42" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="42" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="42" t="s">
+      <c r="B59" s="40" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="40" t="s">
         <v>2014</v>
       </c>
-      <c r="B60" s="42" t="s">
-        <v>2226</v>
+      <c r="B60" s="40" t="s">
+        <v>2213</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8018,7 +8008,7 @@
       <c r="D64" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G64" s="47"/>
+      <c r="G64" s="45"/>
     </row>
     <row r="65" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
@@ -8033,7 +8023,7 @@
       <c r="D65" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G65" s="47"/>
+      <c r="G65" s="45"/>
     </row>
     <row r="66" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
@@ -8045,7 +8035,7 @@
       <c r="C66" s="15" t="s">
         <v>2055</v>
       </c>
-      <c r="G66" s="47"/>
+      <c r="G66" s="45"/>
     </row>
     <row r="67" spans="1:11" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:11" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -8058,7 +8048,7 @@
       <c r="C68" s="21" t="s">
         <v>2151</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D68" s="37" t="s">
         <v>2</v>
       </c>
       <c r="K68" s="18"/>
@@ -8088,7 +8078,7 @@
       <c r="C70" s="21" t="s">
         <v>2155</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="37" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="21" t="s">
@@ -8110,7 +8100,7 @@
       <c r="D72" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G72" s="39"/>
+      <c r="G72" s="37"/>
     </row>
     <row r="73" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
@@ -8256,15 +8246,15 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" s="15" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>2020</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>2083</v>
       </c>
-      <c r="G84" s="41" t="s">
-        <v>2232</v>
+      <c r="G84" s="39" t="s">
+        <v>2219</v>
       </c>
     </row>
     <row r="85" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -8308,8 +8298,8 @@
       <c r="C89" s="15" t="s">
         <v>2089</v>
       </c>
-      <c r="F89" s="39" t="s">
-        <v>2235</v>
+      <c r="F89" s="37" t="s">
+        <v>2222</v>
       </c>
     </row>
     <row r="90" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -8322,8 +8312,8 @@
       <c r="C90" s="15" t="s">
         <v>2091</v>
       </c>
-      <c r="F90" s="39" t="s">
-        <v>2235</v>
+      <c r="F90" s="37" t="s">
+        <v>2222</v>
       </c>
     </row>
     <row r="91" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -8374,13 +8364,13 @@
       <c r="B95" s="13" t="s">
         <v>2028</v>
       </c>
-      <c r="C95" s="37" t="s">
-        <v>2219</v>
+      <c r="C95" s="35" t="s">
+        <v>2206</v>
       </c>
     </row>
     <row r="96" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="47" t="s">
-        <v>2207</v>
+      <c r="A96" s="45" t="s">
+        <v>2199</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>2171</v>
@@ -8391,9 +8381,9 @@
       <c r="D96" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G96" s="39"/>
-      <c r="M96" s="39" t="s">
-        <v>2220</v>
+      <c r="G96" s="37"/>
+      <c r="M96" s="37" t="s">
+        <v>2207</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -8407,7 +8397,7 @@
         <v>2170</v>
       </c>
       <c r="D97" s="26"/>
-      <c r="G97" s="39"/>
+      <c r="G97" s="37"/>
     </row>
     <row r="98" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
@@ -8422,7 +8412,7 @@
       <c r="D98" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="39"/>
+      <c r="G98" s="37"/>
       <c r="H98" s="28" t="s">
         <v>2169</v>
       </c>
@@ -8446,7 +8436,7 @@
       <c r="F99" s="15" t="s">
         <v>2036</v>
       </c>
-      <c r="G99" s="39"/>
+      <c r="G99" s="37"/>
       <c r="H99" s="28" t="s">
         <v>2169</v>
       </c>
@@ -8530,8 +8520,8 @@
       <c r="C105" s="12" t="s">
         <v>2009</v>
       </c>
-      <c r="F105" s="35" t="s">
-        <v>2213</v>
+      <c r="F105" s="49" t="s">
+        <v>2236</v>
       </c>
       <c r="H105" s="11" t="s">
         <v>2016</v>
@@ -8545,7 +8535,7 @@
         <v>2183</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>2208</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="107" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -8670,8 +8660,8 @@
       <c r="B116" s="13" t="s">
         <v>2096</v>
       </c>
-      <c r="C116" s="37" t="s">
-        <v>2223</v>
+      <c r="C116" s="35" t="s">
+        <v>2210</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -8840,8 +8830,8 @@
       <c r="B128" s="13" t="s">
         <v>2117</v>
       </c>
-      <c r="C128" s="37" t="s">
-        <v>2225</v>
+      <c r="C128" s="35" t="s">
+        <v>2212</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -8915,8 +8905,8 @@
       <c r="B135" s="13" t="s">
         <v>2127</v>
       </c>
-      <c r="C135" s="48" t="s">
-        <v>2221</v>
+      <c r="C135" s="46" t="s">
+        <v>2208</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -8962,7 +8952,7 @@
       <c r="C139" s="15" t="s">
         <v>2136</v>
       </c>
-      <c r="H139" s="39" t="s">
+      <c r="H139" s="37" t="s">
         <v>2032</v>
       </c>
     </row>
@@ -8993,8 +8983,8 @@
       <c r="B143" s="11" t="s">
         <v>2117</v>
       </c>
-      <c r="C143" s="49" t="s">
-        <v>2240</v>
+      <c r="C143" s="47" t="s">
+        <v>2227</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -9018,23 +9008,23 @@
       <c r="C145" s="16" t="s">
         <v>2047</v>
       </c>
-      <c r="G145" s="40" t="s">
-        <v>2224</v>
-      </c>
-      <c r="I145" s="40"/>
+      <c r="G145" s="38" t="s">
+        <v>2211</v>
+      </c>
+      <c r="I145" s="38"/>
       <c r="J145" s="16" t="s">
         <v>2068</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="50" t="s">
+      <c r="A146" s="48" t="s">
         <v>2011</v>
       </c>
       <c r="B146" s="16" t="s">
         <v>2138</v>
       </c>
-      <c r="C146" s="50" t="s">
-        <v>2237</v>
+      <c r="C146" s="48" t="s">
+        <v>2224</v>
       </c>
       <c r="E146" s="16" t="b">
         <v>1</v>
@@ -9044,20 +9034,20 @@
       </c>
     </row>
     <row r="147" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="50" t="s">
+      <c r="A147" s="48" t="s">
         <v>2045</v>
       </c>
-      <c r="B147" s="50" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C147" s="50" t="s">
-        <v>2239</v>
+      <c r="B147" s="48" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C147" s="48" t="s">
+        <v>2226</v>
       </c>
       <c r="E147" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G147" s="50" t="s">
-        <v>2224</v>
+      <c r="G147" s="48" t="s">
+        <v>2211</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10041,8 +10031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2045"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37640,14 +37630,14 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2215</v>
+        <v>2202</v>
       </c>
       <c r="B2" t="s">
-        <v>2216</v>
+        <v>2203</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-23 16-41</v>
+        <v>2023-11-28 12-48</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>

--- a/config/forms/contact/case-create.xlsx
+++ b/config/forms/contact/case-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F561D6D-FFF1-4777-A43C-82DE353ABAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B203F7F4-B1C9-4A84-B64A-77CE8F9175D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8313" uniqueCount="2237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8328" uniqueCount="2244">
   <si>
     <t>name</t>
   </si>
@@ -6170,9 +6170,6 @@
   </si>
   <si>
     <t>case_detection_hcw</t>
-  </si>
-  <si>
-    <t>case_investigation_reason</t>
   </si>
   <si>
     <t>date</t>
@@ -6497,9 +6494,6 @@
     <t>case_identification_document_type</t>
   </si>
   <si>
-    <t>Identification Document Type</t>
-  </si>
-  <si>
     <t>case_identification_document_type_label</t>
   </si>
   <si>
@@ -6527,9 +6521,6 @@
     <t>Is the patient a followed contact?</t>
   </si>
   <si>
-    <t>What is the reason for this investigation?</t>
-  </si>
-  <si>
     <t>identification_document_type</t>
   </si>
   <si>
@@ -6753,17 +6744,61 @@
   </si>
   <si>
     <t>${outbreak_code} = 'evd'</t>
+  </si>
+  <si>
+    <t>case_hcw_country</t>
+  </si>
+  <si>
+    <t>Health Facility: Name</t>
+  </si>
+  <si>
+    <t>Health Facility: Country</t>
+  </si>
+  <si>
+    <t>once(if(${case_is_contact} = 'yes', ../../../case/case_contact/cc_biographical_data/surname, ' '))</t>
+  </si>
+  <si>
+    <t>once(if(${case_is_contact} = 'yes', ../../../case/case_contact/cc_biographical_data/middle_name, ' '))</t>
+  </si>
+  <si>
+    <t>once(if(${case_is_contact} = 'yes', ../../../case/case_contact/cc_biographical_data/first_name, ' '))</t>
+  </si>
+  <si>
+    <t>case_identification_title</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 15px 0"&gt;Identification&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>once(if(${case_is_contact} = 'yes', ../../../case/case_contact/cc_biographical_data/sex, ' '))</t>
+  </si>
+  <si>
+    <t>Only case contacts from &lt;strong&gt;${outbreak_location_name}&lt;/strong&gt; can be selected here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6967,86 +7002,82 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -7284,14 +7315,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1078"/>
+  <dimension ref="A1:N1079"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K64" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7474,7 +7505,7 @@
         <v>2009</v>
       </c>
       <c r="G13" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7482,13 +7513,13 @@
         <v>2020</v>
       </c>
       <c r="B14" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="C14" t="s">
         <v>2009</v>
       </c>
       <c r="G14" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7496,13 +7527,13 @@
         <v>2020</v>
       </c>
       <c r="B15" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="C15" t="s">
         <v>2009</v>
       </c>
       <c r="G15" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7510,27 +7541,27 @@
         <v>2020</v>
       </c>
       <c r="B16" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="C16" t="s">
         <v>2009</v>
       </c>
       <c r="G16" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
         <v>2007</v>
       </c>
-      <c r="B18" s="51" t="s">
-        <v>2229</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="48" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>2009</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="28" t="s">
         <v>2016</v>
       </c>
     </row>
@@ -7539,58 +7570,58 @@
         <v>2011</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C19" s="50" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C19" s="47" t="s">
         <v>2009</v>
       </c>
       <c r="E19" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="31" t="s">
-        <v>2195</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>2230</v>
+      <c r="G19" s="29" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>2227</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="47" t="s">
         <v>2017</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="47" t="s">
         <v>2009</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="50"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
         <v>2007</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>2192</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="28" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>2009</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="47" t="s">
         <v>2017</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>2194</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
+        <v>2190</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
@@ -7600,65 +7631,65 @@
         <v>0</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
         <v>2007</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>2196</v>
-      </c>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="28" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>2009</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>2017</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>2197</v>
+      <c r="C27" s="29" t="s">
+        <v>2194</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>2017</v>
       </c>
-      <c r="B28" s="50" t="s">
-        <v>2198</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="30" t="s">
+      <c r="B28" s="47" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
         <v>2014</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="30" t="s">
+      <c r="B29" s="28" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
         <v>2014</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="30" t="s">
+      <c r="B30" s="28" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="28" t="s">
         <v>2014</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>2229</v>
+      <c r="B31" s="48" t="s">
+        <v>2226</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7666,56 +7697,56 @@
       <c r="A33" s="9" t="s">
         <v>2020</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>2173</v>
+      <c r="B33" s="25" t="s">
+        <v>2170</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>2009</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>2174</v>
+      <c r="G33" s="25" t="s">
+        <v>2171</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>2020</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>2175</v>
+      <c r="B34" s="25" t="s">
+        <v>2172</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>2009</v>
       </c>
-      <c r="G34" s="27" t="s">
-        <v>2176</v>
+      <c r="G34" s="25" t="s">
+        <v>2173</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>2020</v>
       </c>
-      <c r="B35" s="27" t="s">
-        <v>2057</v>
+      <c r="B35" s="25" t="s">
+        <v>2056</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>2009</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>2177</v>
+      <c r="G35" s="25" t="s">
+        <v>2174</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>2020</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>2144</v>
+      <c r="B36" s="18" t="s">
+        <v>2143</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>2009</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>2145</v>
+      <c r="G36" s="18" t="s">
+        <v>2144</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7734,62 +7765,62 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="46" t="s">
         <v>2022</v>
       </c>
-      <c r="B39" s="49" t="s">
-        <v>2228</v>
+      <c r="B39" s="46" t="s">
+        <v>2225</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="34" t="s">
         <v>2017</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>2023</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>2201</v>
+      <c r="C40" s="32" t="s">
+        <v>2198</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="34"/>
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>2017</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>2024</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>2025</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="34"/>
       <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:13" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="36" t="s">
         <v>2042</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>2209</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>2160</v>
+      <c r="B42" s="51" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>2158</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I42" s="38" t="s">
+      <c r="I42" s="36" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7802,654 +7833,661 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:13" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="40" t="s">
+    <row r="45" spans="1:13" s="37" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="37" t="s">
         <v>2007</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="37" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F45" s="37" t="s">
         <v>2213</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="H45" s="37" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="38" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>2211</v>
+      </c>
+      <c r="K46" s="40"/>
+      <c r="M46" s="50" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="38" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="39" t="s">
         <v>2009</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="K47" s="40"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:8" s="37" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="37" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="38" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="38" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="38" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="38" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="38" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="37" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="37" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:8" s="37" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="37" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="41" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="41" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="37" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="37" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="37" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="37" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:10" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2066</v>
+      </c>
+      <c r="J74" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J75" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J76" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G77" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G78" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G79" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2082</v>
+      </c>
+      <c r="G80" t="s">
         <v>2216</v>
       </c>
-      <c r="H45" s="40" t="s">
+    </row>
+    <row r="81" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2083</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:8" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="11" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H93" s="11" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="41" t="s">
+    <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="11" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="13" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="42" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="35"/>
+      <c r="M97" s="35" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="24" t="s">
         <v>2011</v>
       </c>
-      <c r="B46" s="41" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>2215</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>2214</v>
-      </c>
-      <c r="K46" s="43"/>
-    </row>
-    <row r="47" spans="1:13" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="41" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>2009</v>
-      </c>
-      <c r="K47" s="43"/>
-    </row>
-    <row r="48" spans="1:13" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:8" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="40" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>2217</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="41" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>2050</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="41" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>2052</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="41" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>2054</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="41" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>2057</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="40" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:8" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="40" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B56" s="40" t="s">
-        <v>2220</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="44" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>2221</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H57" s="44" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="41" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="44" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>2223</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H58" s="44" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="40" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="40" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="40" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="11" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>2048</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="13" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>2050</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>2051</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G64" s="45"/>
-    </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>2052</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>2053</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G65" s="45"/>
-    </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="15" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>2054</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>2055</v>
-      </c>
-      <c r="G66" s="45"/>
-    </row>
-    <row r="67" spans="1:11" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:11" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="21" t="s">
-        <v>2149</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>2150</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K68" s="18"/>
-    </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>2152</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>2009</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>2153</v>
-      </c>
-      <c r="K69" s="18"/>
-    </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>2154</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>2155</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>2156</v>
-      </c>
-      <c r="K70" s="18"/>
-    </row>
-    <row r="71" spans="1:11" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="15" t="s">
-        <v>2056</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>2178</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>2058</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G72" s="37"/>
-    </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="15" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="15" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>2061</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:11" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="11" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>2063</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="15" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>2064</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>2157</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I77" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="15" t="s">
-        <v>2045</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>2067</v>
-      </c>
-      <c r="J78" s="15" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="15" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>2070</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>2072</v>
-      </c>
-      <c r="J79" s="15" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="15" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>2074</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>2072</v>
-      </c>
-      <c r="J80" s="15" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="15" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>2077</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="15" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>2079</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="15" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>2081</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="15" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="15" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>2083</v>
-      </c>
-      <c r="G84" s="39" t="s">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="15" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>2084</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="15" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>2086</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F86" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="11" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="15" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>2088</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>2089</v>
-      </c>
-      <c r="F89" s="37" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="15" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>2090</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>2091</v>
-      </c>
-      <c r="F90" s="37" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="15" t="s">
-        <v>2092</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>2094</v>
-      </c>
-      <c r="H91" s="25"/>
-    </row>
-    <row r="92" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="11" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>2048</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:13" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="11" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="13" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C95" s="35" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="45" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>2171</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>2131</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G96" s="37"/>
-      <c r="M96" s="37" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="26" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>2172</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>2170</v>
-      </c>
-      <c r="D97" s="26"/>
-      <c r="G97" s="37"/>
-    </row>
-    <row r="98" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="15" t="s">
-        <v>2029</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>2031</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G98" s="37"/>
-      <c r="H98" s="28" t="s">
+      <c r="B98" s="24" t="s">
         <v>2169</v>
       </c>
-      <c r="I98" s="15" t="s">
-        <v>206</v>
-      </c>
+      <c r="C98" s="24" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="G98" s="35"/>
     </row>
     <row r="99" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="15" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="35"/>
+      <c r="H99" s="26" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="15" t="s">
         <v>2033</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B100" s="15" t="s">
         <v>2034</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C100" s="15" t="s">
         <v>2035</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>2036</v>
-      </c>
-      <c r="G99" s="37"/>
-      <c r="H99" s="28" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="23" t="s">
-        <v>2164</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>2038</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>2</v>
@@ -8457,22 +8495,20 @@
       <c r="F100" s="15" t="s">
         <v>2036</v>
       </c>
-      <c r="H100" s="28" t="s">
-        <v>2169</v>
-      </c>
-      <c r="L100" s="23" t="s">
+      <c r="G100" s="35"/>
+      <c r="H100" s="26" t="s">
         <v>2166</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="23" t="s">
-        <v>2165</v>
+      <c r="A101" s="21" t="s">
+        <v>2161</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>2163</v>
+        <v>2037</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>2038</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>2</v>
@@ -8480,455 +8516,479 @@
       <c r="F101" s="15" t="s">
         <v>2036</v>
       </c>
-      <c r="H101" s="28" t="s">
-        <v>2169</v>
-      </c>
-      <c r="L101" s="23" t="s">
-        <v>2167</v>
+      <c r="H101" s="26" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L101" s="21" t="s">
+        <v>2163</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="21" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H102" s="26" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L102" s="21" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="22" t="s">
         <v>2011</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B103" s="15" t="s">
         <v>2040</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>2168</v>
-      </c>
-      <c r="H102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-    </row>
-    <row r="103" spans="1:14" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="8" t="s">
+      <c r="C103" s="22" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+    </row>
+    <row r="104" spans="1:14" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
         <v>2014</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B104" s="8" t="s">
         <v>2027</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="1:14" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="11" t="s">
+    <row r="105" spans="1:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:14" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
         <v>2007</v>
       </c>
-      <c r="B105" s="12" t="s">
-        <v>2182</v>
-      </c>
-      <c r="C105" s="12" t="s">
+      <c r="B106" s="12" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>2009</v>
       </c>
-      <c r="F105" s="49" t="s">
-        <v>2236</v>
-      </c>
-      <c r="H105" s="11" t="s">
+      <c r="F106" s="46" t="s">
+        <v>2233</v>
+      </c>
+      <c r="H106" s="11" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="13" t="s">
+    <row r="107" spans="1:14" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="13" t="s">
         <v>2022</v>
       </c>
-      <c r="B106" s="29" t="s">
-        <v>2183</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="15" t="s">
+      <c r="B107" s="27" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="15" t="s">
         <v>2033</v>
       </c>
-      <c r="B107" s="28" t="s">
-        <v>2184</v>
-      </c>
-      <c r="C107" s="15" t="s">
+      <c r="B108" s="26" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>2035</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="28" t="s">
-        <v>2164</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>2186</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>2169</v>
-      </c>
-      <c r="L108" s="28" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="26" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L109" s="26" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="26" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C110" s="26" t="s">
         <v>2187</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="28" t="s">
+      <c r="L110" s="26"/>
+      <c r="M110" s="26" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="26" t="s">
         <v>2011</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B111" s="26" t="s">
         <v>2188</v>
       </c>
-      <c r="C109" s="28" t="s">
-        <v>2190</v>
-      </c>
-      <c r="L109" s="28"/>
-      <c r="M109" s="28" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="28" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>2191</v>
-      </c>
-      <c r="C110" s="28" t="s">
+      <c r="C111" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L110" s="28"/>
-    </row>
-    <row r="111" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="15" t="s">
-        <v>2041</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>2158</v>
-      </c>
-      <c r="H111" s="24" t="s">
-        <v>2026</v>
-      </c>
+      <c r="L111" s="26"/>
     </row>
     <row r="112" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H112" s="22" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="15" t="s">
         <v>2042</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B113" s="15" t="s">
         <v>2043</v>
       </c>
-      <c r="C112" s="21" t="s">
-        <v>2159</v>
-      </c>
-      <c r="H112" s="15" t="s">
+      <c r="C113" s="19" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H113" s="15" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="8" t="s">
+    <row r="114" spans="1:9" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="8" t="s">
         <v>2014</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="115" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="11" t="s">
+      <c r="B114" s="8" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="116" spans="1:9" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="11" t="s">
         <v>2007</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B116" s="12" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="13" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B117" s="13" t="s">
         <v>2095</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="13" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B116" s="13" t="s">
+      <c r="C117" s="33" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="15" t="s">
         <v>2096</v>
       </c>
-      <c r="C116" s="35" t="s">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="15" t="s">
+      <c r="B118" s="15" t="s">
         <v>2097</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="C118" s="15" t="s">
         <v>2098</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="H118" s="26" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="15" t="s">
         <v>2099</v>
       </c>
-      <c r="H117" s="28" t="s">
+      <c r="B119" s="15" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H119" s="26" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="15" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>2101</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>2102</v>
-      </c>
-      <c r="D118" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H118" s="28" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="15" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>2103</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>2104</v>
-      </c>
-      <c r="D119" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="15" t="s">
         <v>2011</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="28" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D120" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F120" s="28" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="15" t="s">
-        <v>2107</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D121" s="28" t="s">
+      <c r="F120" s="15" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="49" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C121" s="49" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D121" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F121" s="28" t="s">
-        <v>2179</v>
-      </c>
-      <c r="H121" s="25" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F121" s="26" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H121" s="49" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I121" s="49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
         <v>2011</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>2110</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D122" s="28" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C122" s="49" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D122" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F122" s="28" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F122" s="26" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
-        <v>2011</v>
+        <v>2106</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>2113</v>
-      </c>
-      <c r="D123" s="28" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D123" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F123" s="28" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F123" s="26" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="s">
         <v>2011</v>
       </c>
       <c r="B124" s="15" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="15" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="15" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C126" s="15" t="s">
         <v>2114</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="D126" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="129" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="11" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>2115</v>
       </c>
-      <c r="D124" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F124" s="28" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="8" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="127" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="11" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B127" s="12" t="s">
+      <c r="C129" s="12" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="13" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>2116</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="13" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>2117</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="15" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>2118</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>2119</v>
-      </c>
-      <c r="H129" s="21"/>
-    </row>
-    <row r="130" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="15" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>2121</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>2122</v>
-      </c>
-      <c r="H130" s="21"/>
+      <c r="C130" s="33" t="s">
+        <v>2209</v>
+      </c>
     </row>
     <row r="131" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="15" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>2118</v>
+      </c>
+      <c r="H131" s="19"/>
+    </row>
+    <row r="132" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="15" t="s">
         <v>2011</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B132" s="15" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>2121</v>
+      </c>
+      <c r="H132" s="19"/>
+    </row>
+    <row r="133" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="15" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>2123</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="F133" s="15" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>2124</v>
       </c>
-      <c r="F131" s="15" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="8" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B132" s="8" t="s">
+    </row>
+    <row r="135" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="136" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="11" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B136" s="12" t="s">
         <v>2125</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="134" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="11" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B134" s="12" t="s">
+      <c r="C136" s="12" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="13" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>2126</v>
       </c>
-      <c r="C134" s="12" t="s">
-        <v>2009</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="13" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>2127</v>
-      </c>
-      <c r="C135" s="46" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="15" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>2128</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="15" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>2130</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>2131</v>
+      <c r="C137" s="43" t="s">
+        <v>2205</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -8936,132 +8996,129 @@
         <v>2011</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" s="15" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="15" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="15" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B141" s="15" t="s">
         <v>2134</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="C141" s="15" t="s">
         <v>2135</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="H141" s="35" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="8" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>2136</v>
       </c>
-      <c r="H139" s="37" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="8" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="8" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B142" s="8" t="s">
+      <c r="C144" s="8" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="11" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C145" s="44" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="16" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G146" s="36" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I146" s="36"/>
+      <c r="J146" s="16" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="45" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B147" s="16" t="s">
         <v>2137</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="11" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>2117</v>
-      </c>
-      <c r="C143" s="47" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="16" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="16" t="s">
-        <v>2045</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>2047</v>
-      </c>
-      <c r="G145" s="38" t="s">
-        <v>2211</v>
-      </c>
-      <c r="I145" s="38"/>
-      <c r="J145" s="16" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="48" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>2138</v>
-      </c>
-      <c r="C146" s="48" t="s">
-        <v>2224</v>
-      </c>
-      <c r="E146" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G146" s="16" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="48" t="s">
-        <v>2045</v>
-      </c>
-      <c r="B147" s="48" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C147" s="48" t="s">
-        <v>2226</v>
+      <c r="C147" s="45" t="s">
+        <v>2221</v>
       </c>
       <c r="E147" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G147" s="48" t="s">
-        <v>2211</v>
+      <c r="G147" s="16" t="s">
+        <v>2138</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="16" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>2140</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>2009</v>
-      </c>
-      <c r="G148" s="16" t="s">
-        <v>2141</v>
+      <c r="A148" s="45" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B148" s="45" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C148" s="45" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E148" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" s="45" t="s">
+        <v>2208</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9069,21 +9126,27 @@
         <v>2020</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>2009</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="8" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>2137</v>
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="16" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>2142</v>
       </c>
     </row>
     <row r="151" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -9091,10 +9154,17 @@
         <v>2014</v>
       </c>
       <c r="B151" s="8" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10021,6 +10091,7 @@
     <row r="1076" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1077" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1078" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1079" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -10031,7 +10102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2045"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A60" sqref="A60:XFD73"/>
     </sheetView>
   </sheetViews>
@@ -10087,7 +10158,7 @@
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -10098,7 +10169,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -10109,7 +10180,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -10120,18 +10191,18 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="B8" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C8" t="s">
         <v>2146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -10353,10 +10424,10 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="C35" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -37630,14 +37701,14 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="B2" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-28 12-48</v>
+        <v>2023-12-04 9-36</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>

--- a/config/forms/contact/case-create.xlsx
+++ b/config/forms/contact/case-create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B203F7F4-B1C9-4A84-B64A-77CE8F9175D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B2AB6F-20BE-48C3-A59A-89E3D926AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8328" uniqueCount="2244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8327" uniqueCount="2244">
   <si>
     <t>name</t>
   </si>
@@ -6773,18 +6773,25 @@
     <t>once(if(${case_is_contact} = 'yes', ../../../case/case_contact/cc_biographical_data/sex, ' '))</t>
   </si>
   <si>
-    <t>Only case contacts from &lt;strong&gt;${outbreak_location_name}&lt;/strong&gt; can be selected here</t>
+    <t>Only case contacts from &lt;strong&gt;${outbreak_location_name}&lt;/strong&gt; can be selected here. If the contact is not listed here, fill the biographical information below.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7002,82 +7009,83 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -7318,11 +7326,11 @@
   <dimension ref="A1:N1079"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7860,14 +7868,11 @@
       <c r="C46" s="39" t="s">
         <v>2212</v>
       </c>
-      <c r="D46" s="38" t="s">
-        <v>2</v>
-      </c>
       <c r="H46" s="38" t="s">
         <v>2211</v>
       </c>
       <c r="K46" s="40"/>
-      <c r="M46" s="50" t="s">
+      <c r="M46" s="52" t="s">
         <v>2243</v>
       </c>
     </row>
@@ -37708,7 +37713,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-12-04 9-36</v>
+        <v>2023-12-11 8-43</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>

--- a/config/forms/contact/case-create.xlsx
+++ b/config/forms/contact/case-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B2AB6F-20BE-48C3-A59A-89E3D926AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1CF67D-AA9F-4A10-89D5-EB2D41A5969F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8327" uniqueCount="2244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8329" uniqueCount="2246">
   <si>
     <t>name</t>
   </si>
@@ -6770,21 +6770,41 @@
     <t>&lt;h4 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 15px 0"&gt;Identification&lt;/h4&gt;</t>
   </si>
   <si>
-    <t>once(if(${case_is_contact} = 'yes', ../../../case/case_contact/cc_biographical_data/sex, ' '))</t>
-  </si>
-  <si>
     <t>Only case contacts from &lt;strong&gt;${outbreak_location_name}&lt;/strong&gt; can be selected here. If the contact is not listed here, fill the biographical information below.</t>
+  </si>
+  <si>
+    <t>once(if(${case_is_contact} = 'yes', ../../../../case/case_contact/cc_biographical_data/date_of_birth, ' '))</t>
+  </si>
+  <si>
+    <t>once(../../../case/case_contact/cc_biographical_data/sex)</t>
+  </si>
+  <si>
+    <t>once(if(${case_is_contact} = 'yes', ../../../case/case_contact/cc_residence_contact/contact_email_address, ' '))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7009,83 +7029,85 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -7326,11 +7348,11 @@
   <dimension ref="A1:N1079"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7819,7 +7841,7 @@
       <c r="A42" s="36" t="s">
         <v>2042</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="50" t="s">
         <v>2206</v>
       </c>
       <c r="C42" s="20" t="s">
@@ -7872,8 +7894,8 @@
         <v>2211</v>
       </c>
       <c r="K46" s="40"/>
-      <c r="M46" s="52" t="s">
-        <v>2243</v>
+      <c r="M46" s="51" t="s">
+        <v>2242</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7948,7 +7970,7 @@
       <c r="A54" s="38" t="s">
         <v>2017</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="52" t="s">
         <v>2058</v>
       </c>
       <c r="C54" s="38" t="s">
@@ -7976,8 +7998,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="41" t="s">
-        <v>2196</v>
+      <c r="A58" s="53" t="s">
+        <v>2017</v>
       </c>
       <c r="B58" s="41" t="s">
         <v>2218</v>
@@ -7990,8 +8012,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" s="38" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="41" t="s">
-        <v>2011</v>
+      <c r="A59" s="53" t="s">
+        <v>2017</v>
       </c>
       <c r="B59" s="38" t="s">
         <v>2220</v>
@@ -8106,8 +8128,8 @@
       <c r="D68" t="s">
         <v>2</v>
       </c>
-      <c r="I68" t="s">
-        <v>2242</v>
+      <c r="G68" t="s">
+        <v>2244</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -8180,6 +8202,9 @@
       <c r="F74" t="s">
         <v>2066</v>
       </c>
+      <c r="G74" t="s">
+        <v>2243</v>
+      </c>
       <c r="J74" t="s">
         <v>2067</v>
       </c>
@@ -8340,10 +8365,10 @@
       <c r="A89" s="16" t="s">
         <v>2022</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="50" t="s">
         <v>2240</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="50" t="s">
         <v>2241</v>
       </c>
     </row>
@@ -8445,7 +8470,7 @@
       <c r="D97" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G97" s="35"/>
+      <c r="G97" s="54"/>
       <c r="M97" s="35" t="s">
         <v>2204</v>
       </c>
@@ -8461,7 +8486,9 @@
         <v>2167</v>
       </c>
       <c r="D98" s="24"/>
-      <c r="G98" s="35"/>
+      <c r="G98" s="54" t="s">
+        <v>2245</v>
+      </c>
     </row>
     <row r="99" spans="1:14" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="15" t="s">
@@ -10108,7 +10135,7 @@
   <dimension ref="A1:E2045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD73"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37713,7 +37740,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-12-11 8-43</v>
+        <v>2023-12-15 14-58</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>

--- a/config/forms/contact/case-create.xlsx
+++ b/config/forms/contact/case-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1CF67D-AA9F-4A10-89D5-EB2D41A5969F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2EAA1-3E3E-40F4-ADDC-253CD76425E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6786,11 +6786,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7029,85 +7036,86 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -7345,14 +7353,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1079"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G97" sqref="G97"/>
+      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9105,7 +9113,7 @@
       <c r="A146" s="16" t="s">
         <v>2044</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="55" t="s">
         <v>2045</v>
       </c>
       <c r="C146" s="16" t="s">
@@ -9203,927 +9211,6 @@
     <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1035" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1036" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1037" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1038" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1039" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1040" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1041" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1042" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1043" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1044" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1045" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1046" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1047" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1048" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1050" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1051" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1052" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1053" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1054" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1055" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1056" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1057" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1058" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1059" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1060" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1061" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1062" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1063" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1064" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1065" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1066" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1067" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1068" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1069" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1070" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1071" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1072" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1073" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1074" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1075" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1076" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1077" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1078" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1079" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -37740,7 +36827,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-12-15 14-58</v>
+        <v>2023-12-19 19-25</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>

--- a/config/forms/contact/case-create.xlsx
+++ b/config/forms/contact/case-create.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2EAA1-3E3E-40F4-ADDC-253CD76425E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90B54B-F240-4FA3-942F-1D33119B720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8329" uniqueCount="2246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8326" uniqueCount="2247">
   <si>
     <t>name</t>
   </si>
@@ -6781,16 +6781,26 @@
   <si>
     <t>once(if(${case_is_contact} = 'yes', ../../../case/case_contact/cc_residence_contact/contact_email_address, ' '))</t>
   </si>
+  <si>
+    <t>selected(${case_hcw_cadre}, 'other')</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7036,86 +7046,87 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -7356,11 +7367,11 @@
   <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
+      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8855,7 +8866,7 @@
       <c r="A123" s="15" t="s">
         <v>2106</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="56" t="s">
         <v>2107</v>
       </c>
       <c r="C123" s="15" t="s">
@@ -8881,11 +8892,9 @@
       <c r="C124" s="15" t="s">
         <v>2110</v>
       </c>
-      <c r="D124" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F124" s="26" t="s">
-        <v>2176</v>
+      <c r="D124" s="26"/>
+      <c r="F124" s="56" t="s">
+        <v>2246</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="15" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -8898,9 +8907,7 @@
       <c r="C125" s="15" t="s">
         <v>2112</v>
       </c>
-      <c r="D125" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="D125" s="26"/>
       <c r="F125" s="26" t="s">
         <v>2176</v>
       </c>
@@ -8915,9 +8922,7 @@
       <c r="C126" s="15" t="s">
         <v>2114</v>
       </c>
-      <c r="D126" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="D126" s="26"/>
       <c r="F126" s="26" t="s">
         <v>2176</v>
       </c>
@@ -36827,7 +36832,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-12-19 19-25</v>
+        <v>2024-01-13 11-33</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
